--- a/t1.xlsx
+++ b/t1.xlsx
@@ -21,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="452">
+  <si>
+    <t xml:space="preserve">num</t>
+  </si>
   <si>
     <t xml:space="preserve">Treinamento</t>
   </si>
@@ -1740,2425 +1743,3328 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="101.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="3" style="1" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="101.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B36" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B42" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="B45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B44" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="B46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B46" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B47" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B48" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="B49" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B50" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="B52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="B51" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="B52" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="B53" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="B55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="B54" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="B55" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="B56" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="B57" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="B58" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="B59" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+      <c r="B61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B60" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+      <c r="B62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="B61" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+      <c r="B63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="B62" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+      <c r="B64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="B63" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+      <c r="B65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B64" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="B66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="B65" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+      <c r="B67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="B66" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+      <c r="B68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="B67" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="B68" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+      <c r="B70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="B69" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+      <c r="B71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="B70" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
+      <c r="B72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="B71" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
+      <c r="B73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="B72" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="B73" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
+      <c r="B75" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="B74" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
+      <c r="B76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="B75" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+      <c r="B77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="B76" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+      <c r="B78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="B77" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="B78" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+      <c r="B80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="B79" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
+      <c r="B81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B80" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
+      <c r="B82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B81" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
+      <c r="B83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="B82" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+      <c r="B84" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="B83" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+      <c r="B85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="B84" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
+      <c r="B86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="B85" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+      <c r="B87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="B86" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
+      <c r="B88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="B87" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
+      <c r="B89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="B88" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+      <c r="B90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="B89" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
+      <c r="B91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="B90" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="B92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="B91" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="B93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="B92" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
+      <c r="B94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="B93" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+      <c r="B95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="B94" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+      <c r="B96" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="B95" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
+      <c r="B97" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="B96" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
+      <c r="B98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="B97" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
+      <c r="B99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="B98" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
+      <c r="B100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="B99" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+      <c r="B101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="B100" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
+      <c r="B102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="B101" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+      <c r="B103" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="B102" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="s">
+      <c r="B104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="B103" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+      <c r="B105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="B104" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+      <c r="B106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="B105" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+      <c r="B107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="B106" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
+      <c r="B108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="B107" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
+      <c r="B109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="B108" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
+      <c r="B110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="B109" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
+      <c r="B111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="B110" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
+      <c r="B112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="B111" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
+      <c r="B113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B112" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
+      <c r="B114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="B113" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+      <c r="B115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="B114" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+      <c r="B116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="B115" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
+      <c r="B117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="B116" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
+      <c r="B118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="B117" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
+      <c r="B119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="B118" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
+      <c r="B120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="B119" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
+      <c r="B121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="B120" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
+      <c r="B122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="B121" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
+      <c r="B123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="B122" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
+      <c r="B124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="B123" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
+      <c r="B125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
         <v>124</v>
       </c>
-      <c r="B124" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
+      <c r="B126" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="B125" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="s">
+      <c r="B127" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="B126" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="s">
+      <c r="B128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="B127" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
+      <c r="B129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="B128" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
+      <c r="B130" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="B129" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="s">
+      <c r="B131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="B130" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
+      <c r="B132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="B131" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
+      <c r="B133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="B132" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
+      <c r="B134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="B133" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
+      <c r="B135" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="B134" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3" t="s">
+      <c r="B136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="B135" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
+      <c r="B137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="B136" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
+      <c r="B138" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="B137" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="3" t="s">
+      <c r="B139" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
         <v>138</v>
       </c>
-      <c r="B138" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3" t="s">
+      <c r="B140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="B139" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
+      <c r="B141" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="B140" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3" t="s">
+      <c r="B142" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="B141" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="s">
+      <c r="B143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
         <v>142</v>
       </c>
-      <c r="B142" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
+      <c r="B144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="B143" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
+      <c r="B145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
         <v>144</v>
       </c>
-      <c r="B144" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
+      <c r="B146" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="B145" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="3" t="s">
+      <c r="B147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="B146" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
+      <c r="B148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="B147" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="s">
+      <c r="B149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
         <v>148</v>
       </c>
-      <c r="B148" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="s">
+      <c r="B150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="B149" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
+      <c r="B151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="B150" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="s">
+      <c r="B152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="B151" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="s">
+      <c r="B153" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C153" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
         <v>152</v>
       </c>
-      <c r="B152" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="3" t="s">
+      <c r="B154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
         <v>153</v>
       </c>
-      <c r="B153" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="s">
+      <c r="B155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="B154" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
+      <c r="B156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="B155" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
+      <c r="B157" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="B156" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
+      <c r="B158" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="B157" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="3" t="s">
+      <c r="B159" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
         <v>158</v>
       </c>
-      <c r="B158" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
+      <c r="B160" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C160" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="B159" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
+      <c r="B161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="B160" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
+      <c r="B162" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="B161" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
+      <c r="B163" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C163" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="B162" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="3" t="s">
+      <c r="B164" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="B163" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="3" t="s">
+      <c r="B165" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C165" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="B164" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="s">
+      <c r="B166" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
         <v>165</v>
       </c>
-      <c r="B165" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="3" t="s">
+      <c r="B167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C167" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="B166" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="s">
+      <c r="B168" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C168" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="B167" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="3" t="s">
+      <c r="B169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="B168" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
+      <c r="B170" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
         <v>169</v>
       </c>
-      <c r="B169" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
+      <c r="B171" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C171" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="B170" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="3" t="s">
+      <c r="B172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C172" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="B171" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="s">
+      <c r="B173" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="B172" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="3" t="s">
+      <c r="B174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="B173" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="s">
+      <c r="B175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="B174" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="s">
+      <c r="B176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C176" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="B175" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
+      <c r="B177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="B176" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="s">
+      <c r="B178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C178" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="n">
         <v>177</v>
       </c>
-      <c r="B177" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="s">
+      <c r="B179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="B178" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="s">
+      <c r="B180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C180" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="B179" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="s">
+      <c r="B181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C181" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="B180" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="s">
+      <c r="B182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C182" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="B181" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="s">
+      <c r="B183" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C183" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="B182" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3" t="s">
+      <c r="B184" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C184" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="B183" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="s">
+      <c r="B185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C185" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="B184" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="s">
+      <c r="B186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C186" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="B185" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="s">
+      <c r="B187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C187" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="B186" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="s">
+      <c r="B188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C188" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="B187" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="s">
+      <c r="B189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C189" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="B188" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="s">
+      <c r="B190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C190" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="B189" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="s">
+      <c r="B191" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C191" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="B190" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="s">
+      <c r="B192" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C192" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="B191" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="s">
+      <c r="B193" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C193" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="B192" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="3" t="s">
+      <c r="B194" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C194" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
         <v>193</v>
       </c>
-      <c r="B193" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="s">
+      <c r="B195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C195" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="B194" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
+      <c r="B196" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C196" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
         <v>195</v>
       </c>
-      <c r="B195" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="3" t="s">
+      <c r="B197" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C197" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="B196" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="s">
+      <c r="B198" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C198" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="B197" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="s">
+      <c r="B199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C199" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="B198" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="s">
+      <c r="B200" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C200" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="B199" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
+      <c r="B201" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C201" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="B200" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
+      <c r="B202" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C202" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="B201" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="3" t="s">
+      <c r="B203" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C203" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="B202" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="s">
+      <c r="B204" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C204" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="B203" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="s">
+      <c r="B205" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="n">
         <v>204</v>
       </c>
-      <c r="B204" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="3" t="s">
+      <c r="B206" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C206" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
         <v>205</v>
       </c>
-      <c r="B205" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="s">
+      <c r="B207" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C207" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="n">
         <v>206</v>
       </c>
-      <c r="B206" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
+      <c r="B208" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C208" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="B207" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="3" t="s">
+      <c r="B209" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C209" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="B208" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="3" t="s">
+      <c r="B210" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C210" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="n">
         <v>209</v>
       </c>
-      <c r="B209" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="s">
+      <c r="B211" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C211" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="B210" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="s">
+      <c r="B212" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C212" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="B211" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="s">
+      <c r="B213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C213" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="B212" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="s">
+      <c r="B214" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C214" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="n">
         <v>213</v>
       </c>
-      <c r="B213" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="s">
+      <c r="B215" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C215" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="B214" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="3" t="s">
+      <c r="B216" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C216" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="B215" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="s">
+      <c r="B217" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C217" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="n">
         <v>216</v>
       </c>
-      <c r="B216" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="s">
+      <c r="B218" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C218" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="B217" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="3" t="s">
+      <c r="B219" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C219" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="B218" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="3" t="s">
+      <c r="B220" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C220" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="B219" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="3" t="s">
+      <c r="B221" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C221" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="n">
         <v>220</v>
       </c>
-      <c r="B220" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="s">
+      <c r="B222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C222" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="B221" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="s">
+      <c r="B223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C223" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="n">
         <v>222</v>
       </c>
-      <c r="B222" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="s">
+      <c r="B224" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C224" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="B223" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="s">
+      <c r="B225" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C225" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="n">
         <v>224</v>
       </c>
-      <c r="B224" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="s">
+      <c r="B226" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="B225" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="s">
+      <c r="B227" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="n">
         <v>226</v>
       </c>
-      <c r="B226" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="s">
+      <c r="B228" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="n">
         <v>227</v>
       </c>
-      <c r="B227" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="3" t="s">
+      <c r="B229" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C229" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="n">
         <v>228</v>
       </c>
-      <c r="B228" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="3" t="s">
+      <c r="B230" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C230" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="n">
         <v>229</v>
       </c>
-      <c r="B229" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="3" t="s">
+      <c r="B231" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C231" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="B230" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
+      <c r="B232" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C232" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="B231" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="3" t="s">
+      <c r="B233" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="n">
         <v>232</v>
       </c>
-      <c r="B232" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="s">
+      <c r="B234" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C234" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="n">
         <v>233</v>
       </c>
-      <c r="B233" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="s">
+      <c r="B235" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C235" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="n">
         <v>234</v>
       </c>
-      <c r="B234" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="s">
+      <c r="B236" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C236" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="n">
         <v>235</v>
       </c>
-      <c r="B235" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
+      <c r="B237" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C237" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="n">
         <v>236</v>
       </c>
-      <c r="B236" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="s">
+      <c r="B238" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C238" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="n">
         <v>237</v>
       </c>
-      <c r="B237" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="s">
+      <c r="B239" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C239" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="n">
         <v>238</v>
       </c>
-      <c r="B238" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="s">
+      <c r="B240" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C240" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="n">
         <v>239</v>
       </c>
-      <c r="B239" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="s">
+      <c r="B241" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C241" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="B240" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
+      <c r="B242" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C242" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="n">
         <v>241</v>
       </c>
-      <c r="B241" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="s">
+      <c r="B243" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C243" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="n">
         <v>242</v>
       </c>
-      <c r="B242" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="s">
+      <c r="B244" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C244" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="n">
         <v>243</v>
       </c>
-      <c r="B243" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="s">
+      <c r="B245" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C245" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="n">
         <v>244</v>
       </c>
-      <c r="B244" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="3" t="s">
+      <c r="B246" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C246" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="B245" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="s">
+      <c r="B247" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C247" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="n">
         <v>246</v>
       </c>
-      <c r="B246" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="3" t="s">
+      <c r="B248" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C248" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="B247" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="s">
+      <c r="B249" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C249" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="n">
         <v>248</v>
       </c>
-      <c r="B248" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="s">
+      <c r="B250" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C250" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="n">
         <v>249</v>
       </c>
-      <c r="B249" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="s">
+      <c r="B251" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C251" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="B250" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="3" t="s">
+      <c r="B252" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C252" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="n">
         <v>251</v>
       </c>
-      <c r="B251" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="s">
+      <c r="B253" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C253" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="B252" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="s">
+      <c r="B254" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C254" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="n">
         <v>253</v>
       </c>
-      <c r="B253" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="3" t="s">
+      <c r="B255" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C255" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="n">
         <v>254</v>
       </c>
-      <c r="B254" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="s">
+      <c r="B256" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C256" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="n">
         <v>255</v>
       </c>
-      <c r="B255" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="s">
+      <c r="B257" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C257" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="B256" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="3" t="s">
+      <c r="B258" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C258" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="n">
         <v>257</v>
       </c>
-      <c r="B257" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="3" t="s">
+      <c r="B259" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C259" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="n">
         <v>258</v>
       </c>
-      <c r="B258" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="s">
+      <c r="B260" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C260" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="n">
         <v>259</v>
       </c>
-      <c r="B259" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="3" t="s">
+      <c r="B261" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C261" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="B260" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="3" t="s">
+      <c r="B262" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C262" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="n">
         <v>261</v>
       </c>
-      <c r="B261" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="3" t="s">
+      <c r="B263" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C263" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="B262" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="3" t="s">
+      <c r="B264" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C264" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="B263" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="3" t="s">
+      <c r="B265" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C265" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="n">
         <v>264</v>
       </c>
-      <c r="B264" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="3" t="s">
+      <c r="B266" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C266" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="n">
         <v>265</v>
       </c>
-      <c r="B265" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="3" t="s">
+      <c r="B267" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C267" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="n">
         <v>266</v>
       </c>
-      <c r="B266" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="3" t="s">
+      <c r="B268" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C268" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="n">
         <v>267</v>
       </c>
-      <c r="B267" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="s">
+      <c r="B269" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C269" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="n">
         <v>268</v>
       </c>
-      <c r="B268" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="s">
+      <c r="B270" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C270" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="B269" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="s">
+      <c r="B271" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C271" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="B270" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="s">
+      <c r="B272" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C272" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="B271" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="s">
+      <c r="B273" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C273" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="B272" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="s">
+      <c r="B274" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C274" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="n">
         <v>273</v>
       </c>
-      <c r="B273" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="3" t="s">
+      <c r="B275" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C275" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="n">
         <v>274</v>
       </c>
-      <c r="B274" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="3" t="s">
+      <c r="B276" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C276" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="B275" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
+      <c r="B277" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C277" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="B276" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="s">
+      <c r="B278" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C278" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="n">
         <v>277</v>
       </c>
-      <c r="B277" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="s">
+      <c r="B279" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C279" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="n">
         <v>278</v>
       </c>
-      <c r="B278" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="s">
+      <c r="B280" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C280" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="n">
         <v>279</v>
       </c>
-      <c r="B279" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="3" t="s">
+      <c r="B281" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C281" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="B280" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="s">
+      <c r="B282" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C282" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="n">
         <v>281</v>
       </c>
-      <c r="B281" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="3" t="s">
+      <c r="B283" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C283" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="B282" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="3" t="s">
+      <c r="B284" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C284" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="n">
         <v>283</v>
       </c>
-      <c r="B283" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
+      <c r="B285" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C285" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="n">
         <v>284</v>
       </c>
-      <c r="B284" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="s">
+      <c r="B286" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C286" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="B285" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="s">
+      <c r="B287" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C287" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="n">
         <v>286</v>
       </c>
-      <c r="B286" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="3" t="s">
+      <c r="B288" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C288" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="B287" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="s">
+      <c r="B289" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C289" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="B288" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="3" t="s">
+      <c r="B290" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C290" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="n">
         <v>289</v>
       </c>
-      <c r="B289" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="3" t="s">
+      <c r="B291" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C291" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="n">
         <v>290</v>
       </c>
-      <c r="B290" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="3" t="s">
+      <c r="B292" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C292" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="n">
         <v>291</v>
       </c>
-      <c r="B291" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="s">
+      <c r="B293" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C293" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="n">
         <v>292</v>
       </c>
-      <c r="B292" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="1" t="s">
+      <c r="B294" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C294" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="n">
         <v>293</v>
       </c>
-      <c r="B293" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="s">
+      <c r="B295" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C295" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="B294" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="s">
+      <c r="B296" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C296" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="n">
         <v>295</v>
       </c>
-      <c r="B295" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="1" t="s">
+      <c r="B297" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C297" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="B296" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="1" t="s">
+      <c r="B298" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C298" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="n">
         <v>297</v>
       </c>
-      <c r="B297" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="1" t="s">
+      <c r="B299" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C299" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="n">
         <v>298</v>
       </c>
-      <c r="B298" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="1" t="s">
+      <c r="B300" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C300" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="n">
         <v>299</v>
       </c>
-      <c r="B299" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B300" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B301" s="1" t="n">
+      <c r="B301" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C301" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,1215 +5084,1666 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A150" activeCellId="0" sqref="A2:A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="68.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="2" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="3" style="1" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" s="1" t="n">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="1" t="n">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5" s="1" t="n">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" s="1" t="n">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7" s="1" t="n">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="1" t="n">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="1" t="n">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="1" t="n">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B11" s="1" t="n">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B12" s="1" t="n">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B13" s="1" t="n">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B14" s="1" t="n">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="1" t="n">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B16" s="1" t="n">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B17" s="1" t="n">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B18" s="1" t="n">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="1" t="n">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B20" s="1" t="n">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B21" s="1" t="n">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B22" s="1" t="n">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B23" s="1" t="n">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B24" s="1" t="n">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B25" s="1" t="n">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B26" s="1" t="n">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B27" s="1" t="n">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B28" s="1" t="n">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B29" s="1" t="n">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B30" s="1" t="n">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C30" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B31" s="1" t="n">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C31" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B32" s="1" t="n">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B33" s="1" t="n">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C33" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B34" s="1" t="n">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B35" s="1" t="n">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B36" s="1" t="n">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B37" s="1" t="n">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B38" s="1" t="n">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C38" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B39" s="1" t="n">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C39" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B40" s="1" t="n">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B41" s="1" t="n">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C41" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B42" s="1" t="n">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C42" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B43" s="1" t="n">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C43" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B44" s="1" t="n">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C44" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B45" s="1" t="n">
+      <c r="A45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C45" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B46" s="1" t="n">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C46" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B47" s="1" t="n">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C47" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B48" s="1" t="n">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C48" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B49" s="1" t="n">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C49" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B50" s="1" t="n">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B51" s="1" t="n">
+      <c r="A51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C51" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="1" t="n">
+      <c r="A52" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B53" s="1" t="n">
+      <c r="A53" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C53" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B54" s="1" t="n">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C54" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B55" s="1" t="n">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C55" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B56" s="1" t="n">
+      <c r="A56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C56" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B57" s="1" t="n">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C57" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B58" s="1" t="n">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C58" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B59" s="1" t="n">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C59" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B60" s="1" t="n">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C60" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B61" s="1" t="n">
+      <c r="A61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C61" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B62" s="1" t="n">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C62" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B63" s="1" t="n">
+      <c r="A63" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C63" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B64" s="1" t="n">
+      <c r="A64" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C64" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B65" s="1" t="n">
+      <c r="A65" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C65" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B66" s="1" t="n">
+      <c r="A66" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C66" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B67" s="1" t="n">
+      <c r="A67" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C67" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B68" s="1" t="n">
+      <c r="A68" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C68" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B69" s="1" t="n">
+      <c r="A69" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C69" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B70" s="1" t="n">
+      <c r="A70" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C70" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B71" s="1" t="n">
+      <c r="A71" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C71" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B72" s="1" t="n">
+      <c r="A72" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C72" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="B73" s="1" t="n">
+      <c r="A73" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C73" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B74" s="1" t="n">
+      <c r="A74" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C74" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B75" s="1" t="n">
+      <c r="A75" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C75" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B76" s="1" t="n">
+      <c r="A76" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C76" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B77" s="1" t="n">
+      <c r="A77" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C77" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B78" s="1" t="n">
+      <c r="A78" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C78" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B79" s="1" t="n">
+      <c r="A79" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C79" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B80" s="1" t="n">
+      <c r="A80" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C80" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B81" s="1" t="n">
+      <c r="A81" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C81" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B82" s="1" t="n">
+      <c r="A82" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C82" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B83" s="1" t="n">
+      <c r="A83" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C83" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B84" s="1" t="n">
+      <c r="A84" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C84" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B85" s="1" t="n">
+      <c r="A85" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C85" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B86" s="1" t="n">
+      <c r="A86" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C86" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B87" s="1" t="n">
+      <c r="A87" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C87" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="B88" s="1" t="n">
+      <c r="A88" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C88" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B89" s="1" t="n">
+      <c r="A89" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C89" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="B90" s="1" t="n">
+      <c r="A90" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C90" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B91" s="1" t="n">
+      <c r="A91" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C91" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B92" s="1" t="n">
+      <c r="A92" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C92" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B93" s="1" t="n">
+      <c r="A93" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C93" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B94" s="1" t="n">
+      <c r="A94" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C94" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B95" s="1" t="n">
+      <c r="A95" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C95" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B96" s="1" t="n">
+      <c r="A96" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C96" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B97" s="1" t="n">
+      <c r="A97" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C97" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B98" s="1" t="n">
+      <c r="A98" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C98" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B99" s="1" t="n">
+      <c r="A99" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C99" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B100" s="1" t="n">
+      <c r="A100" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C100" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B101" s="1" t="n">
+      <c r="A101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C101" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B102" s="1" t="n">
+      <c r="A102" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C102" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B103" s="1" t="n">
+      <c r="A103" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C103" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B104" s="1" t="n">
+      <c r="A104" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C104" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B105" s="1" t="n">
+      <c r="A105" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C105" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B106" s="1" t="n">
+      <c r="A106" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C106" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B107" s="1" t="n">
+      <c r="A107" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C107" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B108" s="1" t="n">
+      <c r="A108" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C108" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B109" s="1" t="n">
+      <c r="A109" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C109" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B110" s="1" t="n">
+      <c r="A110" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C110" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B111" s="1" t="n">
+      <c r="A111" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C111" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B112" s="1" t="n">
+      <c r="A112" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C112" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B113" s="1" t="n">
+      <c r="A113" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C113" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B114" s="1" t="n">
+      <c r="A114" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C114" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B115" s="1" t="n">
+      <c r="A115" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C115" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B116" s="1" t="n">
+      <c r="A116" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C116" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B117" s="1" t="n">
+      <c r="A117" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C117" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B118" s="1" t="n">
+      <c r="A118" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C118" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B119" s="1" t="n">
+      <c r="A119" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C119" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B120" s="1" t="n">
+      <c r="A120" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C120" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B121" s="1" t="n">
+      <c r="A121" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C121" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B122" s="1" t="n">
+      <c r="A122" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C122" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B123" s="1" t="n">
+      <c r="A123" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C123" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B124" s="1" t="n">
+      <c r="A124" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C124" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B125" s="1" t="n">
+      <c r="A125" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C125" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B126" s="1" t="n">
+      <c r="A126" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C126" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B127" s="1" t="n">
+      <c r="A127" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C127" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B128" s="1" t="n">
+      <c r="A128" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C128" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B129" s="1" t="n">
+      <c r="A129" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C129" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B130" s="1" t="n">
+      <c r="A130" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C130" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B131" s="1" t="n">
+      <c r="A131" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C131" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B132" s="1" t="n">
+      <c r="A132" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C132" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B133" s="1" t="n">
+      <c r="A133" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C133" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B134" s="1" t="n">
+      <c r="A134" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C134" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B135" s="1" t="n">
+      <c r="A135" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C135" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B136" s="1" t="n">
+      <c r="A136" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C136" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B137" s="1" t="n">
+      <c r="A137" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C137" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B138" s="1" t="n">
+      <c r="A138" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C138" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B139" s="1" t="n">
+      <c r="A139" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C139" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B140" s="1" t="n">
+      <c r="A140" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C140" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="B141" s="1" t="n">
+      <c r="A141" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C141" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B142" s="1" t="n">
+      <c r="A142" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C142" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B143" s="1" t="n">
+      <c r="A143" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C143" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B144" s="1" t="n">
+      <c r="A144" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C144" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B145" s="1" t="n">
+      <c r="A145" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C145" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B146" s="1" t="n">
+      <c r="A146" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C146" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B147" s="1" t="n">
+      <c r="A147" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C147" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B148" s="1" t="n">
+      <c r="A148" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C148" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B149" s="1" t="n">
+      <c r="A149" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C149" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B150" s="1" t="n">
+      <c r="A150" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C150" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/t1.xlsx
+++ b/t1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="451">
   <si>
     <t xml:space="preserve">num</t>
   </si>
@@ -1108,9 +1108,6 @@
   </si>
   <si>
     <t xml:space="preserve">@estherlisboam é terek, pren pren vai faltar aí no mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste</t>
   </si>
   <si>
     <t xml:space="preserve">rt @folha: circuit breaker foi acionado três vezes apenas essa semana; mecanismo não era usado desde o joesley day, em maio de 2017
@@ -1745,8 +1742,8 @@
   </sheetPr>
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A301"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5086,8 +5083,8 @@
   </sheetPr>
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A150" activeCellId="0" sqref="A2:A301"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5102,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -5110,10 +5107,10 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>3</v>
@@ -5121,10 +5118,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>3</v>
@@ -5132,10 +5129,10 @@
     </row>
     <row r="4" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>3</v>
@@ -5143,10 +5140,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>3</v>
@@ -5154,10 +5151,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
@@ -5165,10 +5162,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0</v>
@@ -5176,10 +5173,10 @@
     </row>
     <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>3</v>
@@ -5187,10 +5184,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0</v>
@@ -5198,10 +5195,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>3</v>
@@ -5209,10 +5206,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
@@ -5220,10 +5217,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0</v>
@@ -5231,10 +5228,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0</v>
@@ -5242,10 +5239,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>0</v>
@@ -5253,10 +5250,10 @@
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0</v>
@@ -5264,10 +5261,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0</v>
@@ -5275,10 +5272,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>3</v>
@@ -5286,10 +5283,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>3</v>
@@ -5297,10 +5294,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>3</v>
@@ -5308,10 +5305,10 @@
     </row>
     <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>3</v>
@@ -5319,10 +5316,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0</v>
@@ -5330,10 +5327,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0</v>
@@ -5341,10 +5338,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0</v>
@@ -5352,10 +5349,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>3</v>
@@ -5363,10 +5360,10 @@
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>3</v>
@@ -5374,10 +5371,10 @@
     </row>
     <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>3</v>
@@ -5385,10 +5382,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0</v>
@@ -5396,10 +5393,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0</v>
@@ -5407,10 +5404,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0</v>
@@ -5418,10 +5415,10 @@
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>3</v>
@@ -5429,10 +5426,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>3</v>
@@ -5440,10 +5437,10 @@
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>3</v>
@@ -5451,10 +5448,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>3</v>
@@ -5462,10 +5459,10 @@
     </row>
     <row r="34" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>3</v>
@@ -5473,10 +5470,10 @@
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>0</v>
@@ -5484,10 +5481,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>3</v>
@@ -5495,10 +5492,10 @@
     </row>
     <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>3</v>
@@ -5506,10 +5503,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>0</v>
@@ -5517,10 +5514,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>3</v>
@@ -5528,10 +5525,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>0</v>
@@ -5539,10 +5536,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>0</v>
@@ -5550,10 +5547,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>0</v>
@@ -5561,10 +5558,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>3</v>
@@ -5572,10 +5569,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>3</v>
@@ -5583,10 +5580,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>3</v>
@@ -5594,10 +5591,10 @@
     </row>
     <row r="46" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>3</v>
@@ -5605,10 +5602,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>3</v>
@@ -5616,10 +5613,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>3</v>
@@ -5627,10 +5624,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>3</v>
@@ -5638,10 +5635,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>3</v>
@@ -5649,10 +5646,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>3</v>
@@ -5660,7 +5657,7 @@
     </row>
     <row r="52" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>24</v>
@@ -5671,10 +5668,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>3</v>
@@ -5682,10 +5679,10 @@
     </row>
     <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>3</v>
@@ -5693,10 +5690,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>3</v>
@@ -5704,10 +5701,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>3</v>
@@ -5715,10 +5712,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>3</v>
@@ -5726,10 +5723,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>3</v>
@@ -5737,10 +5734,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>3</v>
@@ -5748,10 +5745,10 @@
     </row>
     <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>3</v>
@@ -5759,10 +5756,10 @@
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>3</v>
@@ -5770,10 +5767,10 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>3</v>
@@ -5781,10 +5778,10 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>3</v>
@@ -5792,10 +5789,10 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>3</v>
@@ -5803,10 +5800,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>3</v>
@@ -5814,10 +5811,10 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>3</v>
@@ -5825,10 +5822,10 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>3</v>
@@ -5836,10 +5833,10 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>3</v>
@@ -5847,10 +5844,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>3</v>
@@ -5858,10 +5855,10 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>3</v>
@@ -5869,10 +5866,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>3</v>
@@ -5880,10 +5877,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>3</v>
@@ -5891,10 +5888,10 @@
     </row>
     <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>3</v>
@@ -5902,10 +5899,10 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>3</v>
@@ -5913,10 +5910,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>3</v>
@@ -5924,10 +5921,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>3</v>
@@ -5935,10 +5932,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>3</v>
@@ -5946,10 +5943,10 @@
     </row>
     <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>3</v>
@@ -5957,10 +5954,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>3</v>
@@ -5968,10 +5965,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>3</v>
@@ -5979,10 +5976,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>3</v>
@@ -5990,10 +5987,10 @@
     </row>
     <row r="82" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>3</v>
@@ -6001,10 +5998,10 @@
     </row>
     <row r="83" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>3</v>
@@ -6012,10 +6009,10 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>3</v>
@@ -6023,10 +6020,10 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>3</v>
@@ -6034,10 +6031,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>3</v>
@@ -6045,10 +6042,10 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>3</v>
@@ -6056,10 +6053,10 @@
     </row>
     <row r="88" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>3</v>
@@ -6067,10 +6064,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>3</v>
@@ -6078,10 +6075,10 @@
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>3</v>
@@ -6089,10 +6086,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>0</v>
@@ -6100,10 +6097,10 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>0</v>
@@ -6111,10 +6108,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>0</v>
@@ -6122,10 +6119,10 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>0</v>
@@ -6133,10 +6130,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>0</v>
@@ -6144,10 +6141,10 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>0</v>
@@ -6155,10 +6152,10 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>0</v>
@@ -6166,10 +6163,10 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>0</v>
@@ -6177,10 +6174,10 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>0</v>
@@ -6188,10 +6185,10 @@
     </row>
     <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>0</v>
@@ -6199,10 +6196,10 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>0</v>
@@ -6210,10 +6207,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>0</v>
@@ -6221,10 +6218,10 @@
     </row>
     <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>0</v>
@@ -6232,10 +6229,10 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>0</v>
@@ -6243,10 +6240,10 @@
     </row>
     <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>0</v>
@@ -6254,10 +6251,10 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>0</v>
@@ -6265,10 +6262,10 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>0</v>
@@ -6276,10 +6273,10 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>0</v>
@@ -6287,10 +6284,10 @@
     </row>
     <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>0</v>
@@ -6298,10 +6295,10 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>0</v>
@@ -6309,10 +6306,10 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>0</v>
@@ -6320,10 +6317,10 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>0</v>
@@ -6331,10 +6328,10 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>0</v>
@@ -6342,10 +6339,10 @@
     </row>
     <row r="114" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>0</v>
@@ -6353,10 +6350,10 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>0</v>
@@ -6364,10 +6361,10 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>0</v>
@@ -6375,10 +6372,10 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>0</v>
@@ -6386,10 +6383,10 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>0</v>
@@ -6397,10 +6394,10 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>0</v>
@@ -6408,10 +6405,10 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>0</v>
@@ -6419,10 +6416,10 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>0</v>
@@ -6430,10 +6427,10 @@
     </row>
     <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>0</v>
@@ -6441,10 +6438,10 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>0</v>
@@ -6452,10 +6449,10 @@
     </row>
     <row r="124" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>0</v>
@@ -6463,10 +6460,10 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>0</v>
@@ -6474,10 +6471,10 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>0</v>
@@ -6485,10 +6482,10 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>0</v>
@@ -6496,10 +6493,10 @@
     </row>
     <row r="128" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>0</v>
@@ -6507,10 +6504,10 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>0</v>
@@ -6518,10 +6515,10 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>0</v>
@@ -6529,10 +6526,10 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>0</v>
@@ -6540,10 +6537,10 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>0</v>
@@ -6551,10 +6548,10 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>0</v>
@@ -6562,10 +6559,10 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>0</v>
@@ -6573,10 +6570,10 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>0</v>
@@ -6584,10 +6581,10 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>0</v>
@@ -6595,10 +6592,10 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>0</v>
@@ -6606,10 +6603,10 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>0</v>
@@ -6617,10 +6614,10 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>0</v>
@@ -6628,10 +6625,10 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>0</v>
@@ -6639,10 +6636,10 @@
     </row>
     <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>0</v>
@@ -6650,10 +6647,10 @@
     </row>
     <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>3</v>
@@ -6661,10 +6658,10 @@
     </row>
     <row r="143" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>3</v>
@@ -6672,10 +6669,10 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>3</v>
@@ -6683,10 +6680,10 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>0</v>
@@ -6694,10 +6691,10 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>0</v>
@@ -6705,10 +6702,10 @@
     </row>
     <row r="147" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>3</v>
@@ -6716,10 +6713,10 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>3</v>
@@ -6727,10 +6724,10 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>0</v>
@@ -6738,10 +6735,10 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>0</v>
